--- a/Stocks/AAPL.xlsx
+++ b/Stocks/AAPL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/Financials/STOCKS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{9F7BAD96-7547-4D6D-BE3B-73568BA0B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2C7F325-E987-4118-8818-A879367A5310}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{9F7BAD96-7547-4D6D-BE3B-73568BA0B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2013B976-18E2-479A-958D-A3F45D38507C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{62312A71-324F-4839-9299-0A548D897115}"/>
   </bookViews>
@@ -863,10 +863,10 @@
   <dimension ref="A2:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="O8" s="8">
         <f>NPV(O7,U17:AX17)</f>
-        <v>1802594.5580811056</v>
+        <v>1657709.3564111427</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1475,38 +1475,14 @@
         <f t="shared" si="11"/>
         <v>234198.48323681098</v>
       </c>
-      <c r="AF8" s="1">
-        <f t="shared" si="11"/>
-        <v>236540.4680691791</v>
-      </c>
-      <c r="AG8" s="1">
-        <f t="shared" si="11"/>
-        <v>238905.8727498709</v>
-      </c>
-      <c r="AH8" s="1">
-        <f t="shared" si="11"/>
-        <v>241294.93147736962</v>
-      </c>
-      <c r="AI8" s="1">
-        <f t="shared" si="11"/>
-        <v>243707.88079214332</v>
-      </c>
-      <c r="AJ8" s="1">
-        <f t="shared" si="11"/>
-        <v>246144.95960006476</v>
-      </c>
-      <c r="AK8" s="1">
-        <f t="shared" si="11"/>
-        <v>248606.40919606542</v>
-      </c>
-      <c r="AL8" s="1">
-        <f t="shared" si="11"/>
-        <v>251092.47328802609</v>
-      </c>
-      <c r="AM8" s="1">
-        <f t="shared" si="11"/>
-        <v>253603.39802090634</v>
-      </c>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
     </row>
     <row r="9" spans="1:39" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -1615,38 +1591,14 @@
         <f t="shared" si="14"/>
         <v>223862.57192759149</v>
       </c>
-      <c r="AF9" s="4">
-        <f t="shared" si="14"/>
-        <v>230681.80819851143</v>
-      </c>
-      <c r="AG9" s="4">
-        <f t="shared" si="14"/>
-        <v>237660.84904317345</v>
-      </c>
-      <c r="AH9" s="4">
-        <f t="shared" si="14"/>
-        <v>244803.12475153565</v>
-      </c>
-      <c r="AI9" s="4">
-        <f t="shared" ref="AI9:AM9" si="15">+AI5-AI8</f>
-        <v>252112.1365613401</v>
-      </c>
-      <c r="AJ9" s="4">
-        <f t="shared" si="15"/>
-        <v>259591.45810048832</v>
-      </c>
-      <c r="AK9" s="4">
-        <f t="shared" si="15"/>
-        <v>267244.73685849877</v>
-      </c>
-      <c r="AL9" s="4">
-        <f t="shared" si="15"/>
-        <v>275075.6956876294</v>
-      </c>
-      <c r="AM9" s="4">
-        <f t="shared" si="15"/>
-        <v>283088.13433426223</v>
-      </c>
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="4"/>
+      <c r="AH9" s="4"/>
+      <c r="AI9" s="4"/>
+      <c r="AJ9" s="4"/>
+      <c r="AK9" s="4"/>
+      <c r="AL9" s="4"/>
+      <c r="AM9" s="4"/>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1693,7 +1645,7 @@
       </c>
       <c r="O10" s="1">
         <f>+O8+O9</f>
-        <v>1854331.5580811056</v>
+        <v>1709446.3564111427</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1703,11 +1655,11 @@
       </c>
       <c r="T10" s="1"/>
       <c r="U10" s="1">
-        <f t="shared" ref="U10:V11" si="16">SUM(E10:H10)</f>
+        <f t="shared" ref="U10:V11" si="15">SUM(E10:H10)</f>
         <v>29369</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>29915</v>
       </c>
       <c r="W10" s="1">
@@ -1715,69 +1667,45 @@
         <v>30513.3</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" ref="X10:AM10" si="17">+W10*1.02</f>
+        <f t="shared" ref="X10:AM10" si="16">+W10*1.02</f>
         <v>31123.565999999999</v>
       </c>
       <c r="Y10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>31746.037319999999</v>
       </c>
       <c r="Z10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>32380.958066399999</v>
       </c>
       <c r="AA10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>33028.577227727998</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>33689.148772282555</v>
       </c>
       <c r="AC10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>34362.931747728209</v>
       </c>
       <c r="AD10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>35050.190382682777</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>35751.194190336435</v>
       </c>
-      <c r="AF10" s="1">
-        <f t="shared" si="17"/>
-        <v>36466.218074143166</v>
-      </c>
-      <c r="AG10" s="1">
-        <f t="shared" si="17"/>
-        <v>37195.542435626026</v>
-      </c>
-      <c r="AH10" s="1">
-        <f t="shared" si="17"/>
-        <v>37939.453284338546</v>
-      </c>
-      <c r="AI10" s="1">
-        <f t="shared" si="17"/>
-        <v>38698.242350025321</v>
-      </c>
-      <c r="AJ10" s="1">
-        <f t="shared" si="17"/>
-        <v>39472.207197025826</v>
-      </c>
-      <c r="AK10" s="1">
-        <f t="shared" si="17"/>
-        <v>40261.651340966346</v>
-      </c>
-      <c r="AL10" s="1">
-        <f t="shared" si="17"/>
-        <v>41066.884367785671</v>
-      </c>
-      <c r="AM10" s="1">
-        <f t="shared" si="17"/>
-        <v>41888.222055141385</v>
-      </c>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1824,7 +1752,7 @@
       </c>
       <c r="O11" s="9">
         <f>+O10/main!L5</f>
-        <v>121.96230263388875</v>
+        <v>112.43297507850282</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1832,128 +1760,104 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>25221</v>
       </c>
       <c r="V11" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>24932</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" ref="W11:AM11" si="18">+V11*1.02</f>
+        <f t="shared" ref="W11:AM11" si="17">+V11*1.02</f>
         <v>25430.639999999999</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>25939.252799999998</v>
       </c>
       <c r="Y11" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>26458.037855999999</v>
       </c>
       <c r="Z11" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>26987.198613119999</v>
       </c>
       <c r="AA11" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>27526.9425853824</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>28077.481437090049</v>
       </c>
       <c r="AC11" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>28639.031065831852</v>
       </c>
       <c r="AD11" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>29211.811687148489</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>29796.047920891458</v>
       </c>
-      <c r="AF11" s="1">
-        <f t="shared" si="18"/>
-        <v>30391.968879309286</v>
-      </c>
-      <c r="AG11" s="1">
-        <f t="shared" si="18"/>
-        <v>30999.808256895474</v>
-      </c>
-      <c r="AH11" s="1">
-        <f t="shared" si="18"/>
-        <v>31619.804422033383</v>
-      </c>
-      <c r="AI11" s="1">
-        <f t="shared" si="18"/>
-        <v>32252.200510474053</v>
-      </c>
-      <c r="AJ11" s="1">
-        <f t="shared" si="18"/>
-        <v>32897.244520683533</v>
-      </c>
-      <c r="AK11" s="1">
-        <f t="shared" si="18"/>
-        <v>33555.189411097206</v>
-      </c>
-      <c r="AL11" s="1">
-        <f t="shared" si="18"/>
-        <v>34226.293199319152</v>
-      </c>
-      <c r="AM11" s="1">
-        <f t="shared" si="18"/>
-        <v>34910.819063305535</v>
-      </c>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="1">
-        <f t="shared" ref="B12:L12" si="19">+B10+B11</f>
+        <f t="shared" ref="B12:L12" si="18">+B10+B11</f>
         <v>12755</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>12580</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>12809</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>13201</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>14316</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>13658</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>13415</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>13458</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>14482</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>14371</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>14326</v>
       </c>
       <c r="M12" s="1"/>
@@ -1969,128 +1873,104 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1">
-        <f t="shared" ref="U12:V12" si="20">+U10+U11</f>
+        <f t="shared" ref="U12:V12" si="19">+U10+U11</f>
         <v>54590</v>
       </c>
       <c r="V12" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>54847</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" ref="W12" si="21">+W10+W11</f>
+        <f t="shared" ref="W12" si="20">+W10+W11</f>
         <v>55943.94</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" ref="X12:AH12" si="22">+X10+X11</f>
+        <f t="shared" ref="X12:AH12" si="21">+X10+X11</f>
         <v>57062.818799999994</v>
       </c>
       <c r="Y12" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>58204.075175999998</v>
       </c>
       <c r="Z12" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>59368.156679519998</v>
       </c>
       <c r="AA12" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>60555.519813110397</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>61766.630209372604</v>
       </c>
       <c r="AC12" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>63001.962813560065</v>
       </c>
       <c r="AD12" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>64262.002069831266</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>65547.242111227897</v>
       </c>
-      <c r="AF12" s="1">
-        <f t="shared" si="22"/>
-        <v>66858.186953452445</v>
-      </c>
-      <c r="AG12" s="1">
-        <f t="shared" si="22"/>
-        <v>68195.350692521504</v>
-      </c>
-      <c r="AH12" s="1">
-        <f t="shared" si="22"/>
-        <v>69559.257706371922</v>
-      </c>
-      <c r="AI12" s="1">
-        <f t="shared" ref="AI12:AM12" si="23">+AI10+AI11</f>
-        <v>70950.442860499374</v>
-      </c>
-      <c r="AJ12" s="1">
-        <f t="shared" si="23"/>
-        <v>72369.451717709366</v>
-      </c>
-      <c r="AK12" s="1">
-        <f t="shared" si="23"/>
-        <v>73816.840752063552</v>
-      </c>
-      <c r="AL12" s="1">
-        <f t="shared" si="23"/>
-        <v>75293.177567104824</v>
-      </c>
-      <c r="AM12" s="1">
-        <f t="shared" si="23"/>
-        <v>76799.041118446912</v>
-      </c>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
     </row>
     <row r="13" spans="1:39" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="4">
-        <f t="shared" ref="B13:L13" si="24">+B9-B12</f>
+        <f t="shared" ref="B13:L13" si="22">+B9-B12</f>
         <v>41488</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>29979</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>23076</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>24894</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>36016</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>28318</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>22998</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>26969</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>40373</v>
       </c>
       <c r="K13" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>27900</v>
       </c>
       <c r="L13" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>25352</v>
       </c>
       <c r="M13" s="4"/>
@@ -2099,7 +1979,7 @@
       </c>
       <c r="O13" s="7">
         <f>+O11/O12-1</f>
-        <v>-0.43796173901433755</v>
+        <v>-0.4818756908824755</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -2111,19 +1991,19 @@
         <v>6</v>
       </c>
       <c r="U13" s="4">
-        <f t="shared" ref="U13:V13" si="25">+U9-U12</f>
+        <f t="shared" ref="U13:V13" si="23">+U9-U12</f>
         <v>122621</v>
       </c>
       <c r="V13" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>114301</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" ref="W13" si="26">+W9-W12</f>
+        <f t="shared" ref="W13" si="24">+W9-W12</f>
         <v>118728.39000000001</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" ref="X13" si="27">+X9-X12</f>
+        <f t="shared" ref="X13" si="25">+X9-X12</f>
         <v>123265.74150000005</v>
       </c>
       <c r="Y13" s="4">
@@ -2131,61 +2011,37 @@
         <v>127915.46786700004</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" ref="Z13:AH13" si="28">+Z9-Z12</f>
+        <f t="shared" ref="Z13:AH13" si="26">+Z9-Z12</f>
         <v>132680.03287671003</v>
       </c>
       <c r="AA13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>137561.95174313791</v>
       </c>
       <c r="AB13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>142563.79216898332</v>
       </c>
       <c r="AC13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>147688.17541725544</v>
       </c>
       <c r="AD13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>152937.77740454194</v>
       </c>
       <c r="AE13" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>158315.32981636358</v>
       </c>
-      <c r="AF13" s="4">
-        <f t="shared" si="28"/>
-        <v>163823.62124505898</v>
-      </c>
-      <c r="AG13" s="4">
-        <f t="shared" si="28"/>
-        <v>169465.49835065193</v>
-      </c>
-      <c r="AH13" s="4">
-        <f t="shared" si="28"/>
-        <v>175243.86704516373</v>
-      </c>
-      <c r="AI13" s="4">
-        <f t="shared" ref="AI13:AM13" si="29">+AI9-AI12</f>
-        <v>181161.69370084073</v>
-      </c>
-      <c r="AJ13" s="4">
-        <f t="shared" si="29"/>
-        <v>187222.00638277896</v>
-      </c>
-      <c r="AK13" s="4">
-        <f t="shared" si="29"/>
-        <v>193427.89610643522</v>
-      </c>
-      <c r="AL13" s="4">
-        <f t="shared" si="29"/>
-        <v>199782.51812052459</v>
-      </c>
-      <c r="AM13" s="4">
-        <f t="shared" si="29"/>
-        <v>206289.09321581532</v>
-      </c>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -2235,11 +2091,11 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1">
-        <f t="shared" ref="U14:V16" si="30">SUM(E14:H14)</f>
+        <f t="shared" ref="U14:V16" si="27">SUM(E14:H14)</f>
         <v>-831</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>-565</v>
       </c>
       <c r="W14" s="10">
@@ -2247,69 +2103,45 @@
         <v>510.11</v>
       </c>
       <c r="X14" s="10">
-        <f>+W28*0.02</f>
-        <v>3047.2745</v>
+        <f>+W28*0.05</f>
+        <v>7618.1862500000007</v>
       </c>
       <c r="Y14" s="10">
-        <f t="shared" ref="Y14:AM14" si="31">+X28*0.02</f>
-        <v>5194.5957720000006</v>
+        <f t="shared" ref="Y14:AE14" si="28">+X28*0.05</f>
+        <v>13180.753179375002</v>
       </c>
       <c r="Z14" s="10">
-        <f t="shared" si="31"/>
-        <v>7457.4668538630012</v>
+        <f t="shared" si="28"/>
+        <v>19177.342573845941</v>
       </c>
       <c r="AA14" s="10">
-        <f t="shared" si="31"/>
-        <v>9839.8043492827419</v>
+        <f t="shared" si="28"/>
+        <v>25631.281030494571</v>
       </c>
       <c r="AB14" s="10">
-        <f t="shared" si="31"/>
-        <v>12345.634202853893</v>
+        <f t="shared" si="28"/>
+        <v>32566.993423373951</v>
       </c>
       <c r="AC14" s="10">
-        <f t="shared" si="31"/>
-        <v>14979.094451175126</v>
+        <f t="shared" si="28"/>
+        <v>40010.051811049139</v>
       </c>
       <c r="AD14" s="10">
-        <f t="shared" si="31"/>
-        <v>17744.438038938442</v>
+        <f t="shared" si="28"/>
+        <v>47987.226468252076</v>
       </c>
       <c r="AE14" s="10">
-        <f t="shared" si="31"/>
-        <v>20646.035701477613</v>
-      </c>
-      <c r="AF14" s="10">
-        <f t="shared" si="31"/>
-        <v>23688.378915280915</v>
-      </c>
-      <c r="AG14" s="10">
-        <f t="shared" si="31"/>
-        <v>26876.082918006694</v>
-      </c>
-      <c r="AH14" s="10">
-        <f t="shared" si="31"/>
-        <v>30213.889799573892</v>
-      </c>
-      <c r="AI14" s="10">
-        <f t="shared" si="31"/>
-        <v>33706.671665934431</v>
-      </c>
-      <c r="AJ14" s="10">
-        <f t="shared" si="31"/>
-        <v>37359.433877169613</v>
-      </c>
-      <c r="AK14" s="10">
-        <f t="shared" si="31"/>
-        <v>41177.318361588739</v>
-      </c>
-      <c r="AL14" s="10">
-        <f t="shared" si="31"/>
-        <v>45165.607007545143</v>
-      </c>
-      <c r="AM14" s="10">
-        <f t="shared" si="31"/>
-        <v>49329.725134722328</v>
-      </c>
+        <f t="shared" si="28"/>
+        <v>56526.539132845821</v>
+      </c>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="10"/>
+      <c r="AM14" s="10"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2359,11 +2191,11 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>111395</v>
       </c>
       <c r="V15" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>113736</v>
       </c>
       <c r="W15" s="1">
@@ -2372,68 +2204,44 @@
       </c>
       <c r="X15" s="1">
         <f>+X13+X14</f>
-        <v>126313.01600000005</v>
+        <v>130883.92775000005</v>
       </c>
       <c r="Y15" s="1">
         <f>+Y13+Y14</f>
-        <v>133110.06363900006</v>
+        <v>141096.22104637505</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" ref="Z15:AH15" si="32">+Z13+Z14</f>
-        <v>140137.49973057304</v>
+        <f t="shared" ref="Z15:AH15" si="29">+Z13+Z14</f>
+        <v>151857.37545055596</v>
       </c>
       <c r="AA15" s="1">
-        <f t="shared" si="32"/>
-        <v>147401.75609242066</v>
+        <f t="shared" si="29"/>
+        <v>163193.23277363248</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="32"/>
-        <v>154909.42637183721</v>
+        <f t="shared" si="29"/>
+        <v>175130.78559235728</v>
       </c>
       <c r="AC15" s="1">
-        <f t="shared" si="32"/>
-        <v>162667.26986843057</v>
+        <f t="shared" si="29"/>
+        <v>187698.22722830457</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="32"/>
-        <v>170682.21544348038</v>
+        <f t="shared" si="29"/>
+        <v>200925.00387279401</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="32"/>
-        <v>178961.36551784119</v>
-      </c>
-      <c r="AF15" s="1">
-        <f t="shared" si="32"/>
-        <v>187512.0001603399</v>
-      </c>
-      <c r="AG15" s="1">
-        <f t="shared" si="32"/>
-        <v>196341.58126865863</v>
-      </c>
-      <c r="AH15" s="1">
-        <f t="shared" si="32"/>
-        <v>205457.75684473763</v>
-      </c>
-      <c r="AI15" s="1">
-        <f t="shared" ref="AI15:AM15" si="33">+AI13+AI14</f>
-        <v>214868.36536677516</v>
-      </c>
-      <c r="AJ15" s="1">
-        <f t="shared" si="33"/>
-        <v>224581.44025994858</v>
-      </c>
-      <c r="AK15" s="1">
-        <f t="shared" si="33"/>
-        <v>234605.21446802397</v>
-      </c>
-      <c r="AL15" s="1">
-        <f t="shared" si="33"/>
-        <v>244948.12512806972</v>
-      </c>
-      <c r="AM15" s="1">
-        <f t="shared" si="33"/>
-        <v>255618.81835053765</v>
-      </c>
+        <f t="shared" si="29"/>
+        <v>214841.8689492094</v>
+      </c>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -2483,11 +2291,11 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>16635</v>
       </c>
       <c r="V16" s="1">
-        <f t="shared" si="30"/>
+        <f t="shared" si="27"/>
         <v>16741</v>
       </c>
       <c r="W16" s="1">
@@ -2495,116 +2303,92 @@
         <v>17885.775000000001</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" ref="X16:AM16" si="34">+X15*0.15</f>
-        <v>18946.952400000006</v>
+        <f t="shared" ref="X16:AM16" si="30">+X15*0.15</f>
+        <v>19632.589162500008</v>
       </c>
       <c r="Y16" s="1">
-        <f t="shared" si="34"/>
-        <v>19966.509545850007</v>
+        <f t="shared" si="30"/>
+        <v>21164.433156956256</v>
       </c>
       <c r="Z16" s="1">
-        <f t="shared" si="34"/>
-        <v>21020.624959585955</v>
+        <f t="shared" si="30"/>
+        <v>22778.606317583395</v>
       </c>
       <c r="AA16" s="1">
-        <f t="shared" si="34"/>
-        <v>22110.2634138631</v>
+        <f t="shared" si="30"/>
+        <v>24478.984916044872</v>
       </c>
       <c r="AB16" s="1">
-        <f t="shared" si="34"/>
-        <v>23236.413955775581</v>
+        <f t="shared" si="30"/>
+        <v>26269.617838853592</v>
       </c>
       <c r="AC16" s="1">
-        <f t="shared" si="34"/>
-        <v>24400.090480264585</v>
+        <f t="shared" si="30"/>
+        <v>28154.734084245687</v>
       </c>
       <c r="AD16" s="1">
-        <f t="shared" si="34"/>
-        <v>25602.332316522057</v>
+        <f t="shared" si="30"/>
+        <v>30138.750580919099</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" si="34"/>
-        <v>26844.204827676178</v>
-      </c>
-      <c r="AF16" s="1">
-        <f t="shared" si="34"/>
-        <v>28126.800024050983</v>
-      </c>
-      <c r="AG16" s="1">
-        <f t="shared" si="34"/>
-        <v>29451.237190298794</v>
-      </c>
-      <c r="AH16" s="1">
-        <f t="shared" si="34"/>
-        <v>30818.663526710643</v>
-      </c>
-      <c r="AI16" s="1">
-        <f t="shared" si="34"/>
-        <v>32230.254805016273</v>
-      </c>
-      <c r="AJ16" s="1">
-        <f t="shared" si="34"/>
-        <v>33687.216038992286</v>
-      </c>
-      <c r="AK16" s="1">
-        <f t="shared" si="34"/>
-        <v>35190.782170203594</v>
-      </c>
-      <c r="AL16" s="1">
-        <f t="shared" si="34"/>
-        <v>36742.218769210456</v>
-      </c>
-      <c r="AM16" s="1">
-        <f t="shared" si="34"/>
-        <v>38342.822752580643</v>
-      </c>
+        <f t="shared" si="30"/>
+        <v>32226.280342381408</v>
+      </c>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
     </row>
     <row r="17" spans="1:50" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="4">
-        <f t="shared" ref="B17:L17" si="35">+B15-B16</f>
+        <f t="shared" ref="B17:L17" si="31">+B15-B16</f>
         <v>34630</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>25010</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>19442</v>
       </c>
       <c r="E17" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>20721</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>29998</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>24160</v>
       </c>
       <c r="H17" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>19881</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>22956</v>
       </c>
       <c r="J17" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>33916</v>
       </c>
       <c r="K17" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>23636</v>
       </c>
       <c r="L17" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="31"/>
         <v>21448</v>
       </c>
       <c r="M17" s="4"/>
@@ -2616,172 +2400,157 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4">
-        <f t="shared" ref="U17:AH17" si="36">+U15-U16</f>
+        <f t="shared" ref="U17:AH17" si="32">+U15-U16</f>
         <v>94760</v>
       </c>
       <c r="V17" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>96995</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="32"/>
         <v>101352.72500000001</v>
       </c>
       <c r="X17" s="4">
-        <f t="shared" si="36"/>
-        <v>107366.06360000004</v>
+        <f t="shared" si="32"/>
+        <v>111251.33858750004</v>
       </c>
       <c r="Y17" s="4">
-        <f t="shared" si="36"/>
-        <v>113143.55409315004</v>
+        <f t="shared" si="32"/>
+        <v>119931.7878894188</v>
       </c>
       <c r="Z17" s="4">
-        <f t="shared" si="36"/>
-        <v>119116.87477098708</v>
+        <f t="shared" si="32"/>
+        <v>129078.76913297256</v>
       </c>
       <c r="AA17" s="4">
-        <f t="shared" si="36"/>
-        <v>125291.49267855757</v>
+        <f t="shared" si="32"/>
+        <v>138714.24785758762</v>
       </c>
       <c r="AB17" s="4">
-        <f t="shared" si="36"/>
-        <v>131673.01241606163</v>
+        <f t="shared" si="32"/>
+        <v>148861.16775350369</v>
       </c>
       <c r="AC17" s="4">
-        <f t="shared" si="36"/>
-        <v>138267.17938816597</v>
+        <f t="shared" si="32"/>
+        <v>159543.49314405888</v>
       </c>
       <c r="AD17" s="4">
-        <f t="shared" si="36"/>
-        <v>145079.88312695833</v>
+        <f t="shared" si="32"/>
+        <v>170786.25329187492</v>
       </c>
       <c r="AE17" s="4">
-        <f t="shared" si="36"/>
-        <v>152117.16069016501</v>
+        <f t="shared" si="32"/>
+        <v>182615.58860682798</v>
       </c>
       <c r="AF17" s="4">
-        <f t="shared" si="36"/>
-        <v>159385.20013628891</v>
+        <f>+AE17*0.99</f>
+        <v>180789.43272075971</v>
       </c>
       <c r="AG17" s="4">
-        <f t="shared" si="36"/>
-        <v>166890.34407835983</v>
+        <f t="shared" ref="AG17:AS17" si="33">+AF17*0.99</f>
+        <v>178981.53839355212</v>
       </c>
       <c r="AH17" s="4">
-        <f t="shared" si="36"/>
-        <v>174639.09331802698</v>
+        <f t="shared" si="33"/>
+        <v>177191.7230096166</v>
       </c>
       <c r="AI17" s="4">
-        <f t="shared" ref="AI17:AM17" si="37">+AI15-AI16</f>
-        <v>182638.11056175889</v>
+        <f t="shared" si="33"/>
+        <v>175419.80577952042</v>
       </c>
       <c r="AJ17" s="4">
-        <f t="shared" si="37"/>
-        <v>190894.2242209563</v>
+        <f t="shared" si="33"/>
+        <v>173665.60772172522</v>
       </c>
       <c r="AK17" s="4">
-        <f t="shared" si="37"/>
-        <v>199414.43229782037</v>
+        <f t="shared" si="33"/>
+        <v>171928.95164450796</v>
       </c>
       <c r="AL17" s="4">
-        <f t="shared" si="37"/>
-        <v>208205.90635885927</v>
+        <f t="shared" si="33"/>
+        <v>170209.66212806289</v>
       </c>
       <c r="AM17" s="4">
-        <f t="shared" si="37"/>
-        <v>217275.99559795699</v>
+        <f t="shared" si="33"/>
+        <v>168507.56550678227</v>
       </c>
       <c r="AN17" s="4">
-        <f t="shared" ref="AN17:AX17" si="38">+AM17*(1+$O$6)</f>
-        <v>212930.47568599784</v>
+        <f t="shared" si="33"/>
+        <v>166822.48985171443</v>
       </c>
       <c r="AO17" s="4">
-        <f t="shared" si="38"/>
-        <v>208671.86617227786</v>
+        <f t="shared" si="33"/>
+        <v>165154.2649531973</v>
       </c>
       <c r="AP17" s="4">
-        <f t="shared" si="38"/>
-        <v>204498.42884883229</v>
+        <f t="shared" si="33"/>
+        <v>163502.72230366533</v>
       </c>
       <c r="AQ17" s="4">
-        <f t="shared" si="38"/>
-        <v>200408.46027185564</v>
+        <f t="shared" si="33"/>
+        <v>161867.69508062868</v>
       </c>
       <c r="AR17" s="4">
-        <f t="shared" si="38"/>
-        <v>196400.29106641852</v>
+        <f t="shared" si="33"/>
+        <v>160249.01812982239</v>
       </c>
       <c r="AS17" s="4">
-        <f t="shared" si="38"/>
-        <v>192472.28524509014</v>
-      </c>
-      <c r="AT17" s="4">
-        <f t="shared" si="38"/>
-        <v>188622.83954018835</v>
-      </c>
-      <c r="AU17" s="4">
-        <f t="shared" si="38"/>
-        <v>184850.38274938459</v>
-      </c>
-      <c r="AV17" s="4">
-        <f t="shared" si="38"/>
-        <v>181153.37509439691</v>
-      </c>
-      <c r="AW17" s="4">
-        <f t="shared" si="38"/>
-        <v>177530.30759250897</v>
-      </c>
-      <c r="AX17" s="4">
-        <f t="shared" si="38"/>
-        <v>173979.70144065877</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>158646.52794852416</v>
+      </c>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
       <c r="B18" s="5">
-        <f t="shared" ref="B18:L18" si="39">+B17/B19</f>
+        <f t="shared" ref="B18:L18" si="34">+B17/B19</f>
         <v>2.1126514819307598</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>1.5363538422544853</v>
       </c>
       <c r="D18" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>1.2028748473746584</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>1.2778149530804923</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>1.8875305383476451</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>1.5303581633523053</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>1.2664982079442137</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>1.4580578752941316</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>2.1867516608732189</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>1.5342217920250585</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="39"/>
+        <f t="shared" si="34"/>
         <v>1.4029743605912299</v>
       </c>
       <c r="M18" s="5"/>
@@ -2790,81 +2559,57 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="U18" s="5">
-        <f t="shared" ref="U18:AH18" si="40">+U17/U19</f>
+        <f t="shared" ref="U18:AH18" si="35">+U17/U19</f>
         <v>5.8269530830967726</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>6.1465370035373876</v>
       </c>
       <c r="W18" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="35"/>
         <v>6.4226844128238456</v>
       </c>
       <c r="X18" s="5">
-        <f t="shared" si="40"/>
-        <v>6.803747438956119</v>
+        <f t="shared" si="35"/>
+        <v>7.0499558670151643</v>
       </c>
       <c r="Y18" s="5">
-        <f t="shared" si="40"/>
-        <v>7.1698648584492064</v>
+        <f t="shared" si="35"/>
+        <v>7.6000327043941418</v>
       </c>
       <c r="Z18" s="5">
-        <f t="shared" si="40"/>
-        <v>7.5483919637672168</v>
+        <f t="shared" si="35"/>
+        <v>8.1796734970552656</v>
       </c>
       <c r="AA18" s="5">
-        <f t="shared" si="40"/>
-        <v>7.9396751995173744</v>
+        <f t="shared" si="35"/>
+        <v>8.7902701930462293</v>
       </c>
       <c r="AB18" s="5">
-        <f t="shared" si="40"/>
-        <v>8.3440697271257349</v>
+        <f t="shared" si="35"/>
+        <v>9.4332767254672607</v>
       </c>
       <c r="AC18" s="5">
-        <f t="shared" si="40"/>
-        <v>8.7619396307449264</v>
+        <f t="shared" si="35"/>
+        <v>10.110211704557672</v>
       </c>
       <c r="AD18" s="5">
-        <f t="shared" si="40"/>
-        <v>9.1936581278285363</v>
+        <f t="shared" si="35"/>
+        <v>10.822661225362319</v>
       </c>
       <c r="AE18" s="5">
-        <f t="shared" si="40"/>
-        <v>9.639607784474892</v>
-      </c>
-      <c r="AF18" s="5">
-        <f t="shared" si="40"/>
-        <v>10.10018073564526</v>
-      </c>
-      <c r="AG18" s="5">
-        <f t="shared" si="40"/>
-        <v>10.575778910363683</v>
-      </c>
-      <c r="AH18" s="5">
-        <f t="shared" si="40"/>
-        <v>11.066814262008059</v>
-      </c>
-      <c r="AI18" s="5">
-        <f t="shared" ref="AI18:AM18" si="41">+AI17/AI19</f>
-        <v>11.573709003804357</v>
-      </c>
-      <c r="AJ18" s="5">
-        <f t="shared" si="41"/>
-        <v>12.096895849638342</v>
-      </c>
-      <c r="AK18" s="5">
-        <f t="shared" si="41"/>
-        <v>12.636818260301604</v>
-      </c>
-      <c r="AL18" s="5">
-        <f t="shared" si="41"/>
-        <v>13.193930695291188</v>
-      </c>
-      <c r="AM18" s="5">
-        <f t="shared" si="41"/>
-        <v>13.768698870284748</v>
-      </c>
+        <f t="shared" si="35"/>
+        <v>11.572281795913488</v>
+      </c>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="5"/>
+      <c r="AM18" s="5"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -2921,116 +2666,92 @@
         <v>15780.4305</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" ref="X19:AH19" si="42">+W19</f>
+        <f t="shared" ref="X19:AH19" si="36">+W19</f>
         <v>15780.4305</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v>15780.4305</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v>15780.4305</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v>15780.4305</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v>15780.4305</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v>15780.4305</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v>15780.4305</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="36"/>
         <v>15780.4305</v>
       </c>
-      <c r="AF19" s="1">
-        <f t="shared" si="42"/>
-        <v>15780.4305</v>
-      </c>
-      <c r="AG19" s="1">
-        <f t="shared" si="42"/>
-        <v>15780.4305</v>
-      </c>
-      <c r="AH19" s="1">
-        <f t="shared" si="42"/>
-        <v>15780.4305</v>
-      </c>
-      <c r="AI19" s="1">
-        <f t="shared" ref="AI19" si="43">+AH19</f>
-        <v>15780.4305</v>
-      </c>
-      <c r="AJ19" s="1">
-        <f t="shared" ref="AJ19" si="44">+AI19</f>
-        <v>15780.4305</v>
-      </c>
-      <c r="AK19" s="1">
-        <f t="shared" ref="AK19" si="45">+AJ19</f>
-        <v>15780.4305</v>
-      </c>
-      <c r="AL19" s="1">
-        <f t="shared" ref="AL19" si="46">+AK19</f>
-        <v>15780.4305</v>
-      </c>
-      <c r="AM19" s="1">
-        <f t="shared" ref="AM19" si="47">+AL19</f>
-        <v>15780.4305</v>
-      </c>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" ref="B21:L21" si="48">+B9/B5</f>
+        <f t="shared" ref="B21:L21" si="37">+B9/B5</f>
         <v>0.43763766186615033</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>0.43749871502292398</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>0.43256307332537758</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>0.4225922392563175</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>0.42962254809908323</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>0.44261672782487665</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>0.44516302553883397</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>0.45170841806520817</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>0.45874973865774621</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>0.46578074554009236</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>0.46257155181458898</v>
       </c>
       <c r="M21" s="2"/>
@@ -3050,7 +2771,7 @@
         <v>0.44131129577207562</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" ref="W21:AH21" si="49">+W9/W5</f>
+        <f t="shared" ref="W21:AH21" si="38">+W9/W5</f>
         <v>0.44678863600960433</v>
       </c>
       <c r="X21" s="2">
@@ -3062,40 +2783,40 @@
         <v>0.45758274470722549</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>0.46290056093558601</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>0.46816624171072729</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>0.47338029816454369</v>
       </c>
       <c r="AC21" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>0.47854323641783247</v>
       </c>
       <c r="AD21" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>0.48365555762942236</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>0.48871775804482021</v>
       </c>
       <c r="AF21" s="2">
-        <f t="shared" si="49"/>
-        <v>0.4937303290443808</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="AG21" s="2">
-        <f t="shared" si="49"/>
-        <v>0.49869375719100451</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="AH21" s="2">
-        <f t="shared" si="49"/>
-        <v>0.50360852427736724</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
@@ -3103,47 +2824,47 @@
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" ref="B22:L22" si="50">+B13/B5</f>
+        <f t="shared" ref="B22:L22" si="39">+B13/B5</f>
         <v>0.33472911371979508</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>0.30817862209338187</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>0.27816150146457891</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>0.27615202005635303</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>0.30742441572630896</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>0.29859968788223878</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>0.28115945572576012</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>0.30133634271156895</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>0.33763746602550698</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>0.30742785362467356</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>0.29555708406682446</v>
       </c>
       <c r="M22" s="2"/>
@@ -3163,7 +2884,7 @@
         <v>0.29821412265024722</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" ref="W22:AH22" si="51">+W13/W5</f>
+        <f t="shared" ref="W22:AH22" si="40">+W13/W5</f>
         <v>0.30369146288777588</v>
       </c>
       <c r="X22" s="2">
@@ -3175,40 +2896,40 @@
         <v>0.31448557158539708</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0.31980338781375761</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0.32506906858889889</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0.33028312504271529</v>
       </c>
       <c r="AC22" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0.33544606329600407</v>
       </c>
       <c r="AD22" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0.34055838450759396</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0.34562058492299175</v>
       </c>
       <c r="AF22" s="2">
-        <f t="shared" si="51"/>
-        <v>0.3506331559225524</v>
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
       <c r="AG22" s="2">
-        <f t="shared" si="51"/>
-        <v>0.35559658406917605</v>
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
       <c r="AH22" s="2">
-        <f t="shared" si="51"/>
-        <v>0.36051135115553884</v>
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
@@ -3216,47 +2937,47 @@
         <v>38</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" ref="B23:L23" si="52">+B17/B5</f>
+        <f t="shared" ref="B23:L23" si="41">+B17/B5</f>
         <v>0.27939812013393039</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>0.25709821336787353</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>0.23435673043310551</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>0.22986044860559537</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>0.2560561312460522</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>0.25475557805052934</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>0.24305292370135825</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>0.25649735189613176</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>0.28363788417311309</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>0.26044318094167684</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="52"/>
+        <f t="shared" si="41"/>
         <v>0.25004371801298714</v>
       </c>
       <c r="M23" s="2"/>
@@ -3276,52 +2997,52 @@
         <v>0.25306234264320282</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" ref="W23:AH23" si="53">+W17/W5</f>
+        <f t="shared" ref="W23:AH23" si="42">+W17/W5</f>
         <v>0.2592468180770619</v>
       </c>
       <c r="X23" s="2">
         <f>+X17/X5</f>
-        <v>0.26924327457826958</v>
+        <v>0.27898642921387962</v>
       </c>
       <c r="Y23" s="2">
         <f>+Y17/Y5</f>
-        <v>0.27816819868246068</v>
+        <v>0.29485735771125421</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="53"/>
-        <v>0.2871116269088263</v>
+        <f t="shared" si="42"/>
+        <v>0.31112313411855175</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" si="53"/>
-        <v>0.29607306606976252</v>
+        <f t="shared" si="42"/>
+        <v>0.32779202955242315</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="53"/>
-        <v>0.30505202872982212</v>
+        <f t="shared" si="42"/>
+        <v>0.34487250188222673</v>
       </c>
       <c r="AC23" s="2">
-        <f t="shared" si="53"/>
-        <v>0.31404803314662411</v>
+        <f t="shared" si="42"/>
+        <v>0.36237319980740085</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" si="53"/>
-        <v>0.32306060321235025</v>
+        <f t="shared" si="42"/>
+        <v>0.38030296702519201</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" si="53"/>
-        <v>0.3320892683958227</v>
+        <f t="shared" si="42"/>
+        <v>0.39867084649072709</v>
       </c>
       <c r="AF23" s="2">
-        <f t="shared" si="53"/>
-        <v>0.34113356368515846</v>
+        <f t="shared" si="42"/>
+        <v>0.38694523335864689</v>
       </c>
       <c r="AG23" s="2">
-        <f t="shared" si="53"/>
-        <v>0.35019302953099241</v>
+        <f t="shared" si="42"/>
+        <v>0.37556449120103969</v>
       </c>
       <c r="AH23" s="2">
-        <f t="shared" si="53"/>
-        <v>0.35926721179026649</v>
+        <f t="shared" si="42"/>
+        <v>0.36451847675395022</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
@@ -3329,46 +3050,46 @@
         <v>39</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" ref="B24:L24" si="54">+B16/B15</f>
+        <f t="shared" ref="B24:L24" si="43">+B16/B15</f>
         <v>0.16030164157028201</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="43"/>
         <v>0.17017817445834302</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="43"/>
         <v>0.15711436746726784</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="43"/>
         <v>0.15963012531938192</v>
       </c>
       <c r="F24" s="14" t="s">
         <v>71</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="43"/>
         <v>0.14875625396377987</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="43"/>
         <v>0.12545638499098227</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="43"/>
         <v>0.14971479368842136</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="43"/>
         <v>0.15889194752374575</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="43"/>
         <v>0.1576021099151757</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="54"/>
+        <f t="shared" si="43"/>
         <v>0.15870400878638111</v>
       </c>
       <c r="M24" s="2"/>
@@ -3388,52 +3109,52 @@
         <v>0.14719174228036858</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" ref="W24:AH24" si="55">+W16/W15</f>
+        <f t="shared" ref="W24:AH24" si="44">+W16/W15</f>
         <v>0.15</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="44"/>
         <v>0.15</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="44"/>
         <v>0.15</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="44"/>
         <v>0.15</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="44"/>
         <v>0.15</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="44"/>
         <v>0.15</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="44"/>
         <v>0.15</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="44"/>
         <v>0.15</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="55"/>
+        <f t="shared" si="44"/>
         <v>0.15</v>
       </c>
-      <c r="AF24" s="2">
-        <f t="shared" si="55"/>
-        <v>0.15</v>
-      </c>
-      <c r="AG24" s="2">
-        <f t="shared" si="55"/>
-        <v>0.15</v>
-      </c>
-      <c r="AH24" s="2">
-        <f t="shared" si="55"/>
-        <v>0.15</v>
+      <c r="AF24" s="2" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG24" s="2" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH24" s="2" t="e">
+        <f t="shared" si="44"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:50" ht="15" x14ac:dyDescent="0.25">
@@ -3451,31 +3172,31 @@
         <v>6</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" ref="F26:L26" si="56">+F5/B5-1</f>
+        <f t="shared" ref="F26:L26" si="45">+F5/B5-1</f>
         <v>-5.4790431239662762E-2</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="45"/>
         <v>-2.5103312156911084E-2</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="45"/>
         <v>-1.4006919080509661E-2</v>
       </c>
       <c r="I26" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="45"/>
         <v>-7.1883389168682088E-3</v>
       </c>
       <c r="J26" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="45"/>
         <v>2.0665107465387411E-2</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="45"/>
         <v>-4.3053270909781061E-2</v>
       </c>
       <c r="L26" s="6">
-        <f t="shared" si="56"/>
+        <f t="shared" si="45"/>
         <v>4.8657041211780383E-2</v>
       </c>
       <c r="M26" s="6"/>
@@ -3496,7 +3217,7 @@
         <v>-2.800460530319937E-2</v>
       </c>
       <c r="W26" s="6">
-        <f t="shared" ref="W26:AH26" si="57">+W5/V5-1</f>
+        <f t="shared" ref="W26:AH26" si="46">+W5/V5-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="X26" s="6">
@@ -3512,35 +3233,35 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AA26" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AB26" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AC26" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD26" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AE26" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AF26" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AG26" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AH26" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -3614,76 +3335,76 @@
         <v>152363.72500000001</v>
       </c>
       <c r="X28" s="12">
-        <f t="shared" ref="X28:AO28" si="58">+W28+X17</f>
-        <v>259729.78860000003</v>
+        <f t="shared" ref="X28:AO28" si="47">+W28+X17</f>
+        <v>263615.06358750002</v>
       </c>
       <c r="Y28" s="12">
-        <f t="shared" si="58"/>
-        <v>372873.34269315004</v>
+        <f t="shared" si="47"/>
+        <v>383546.85147691879</v>
       </c>
       <c r="Z28" s="12">
-        <f t="shared" si="58"/>
-        <v>491990.21746413712</v>
+        <f t="shared" si="47"/>
+        <v>512625.62060989137</v>
       </c>
       <c r="AA28" s="12">
-        <f t="shared" si="58"/>
-        <v>617281.71014269465</v>
+        <f t="shared" si="47"/>
+        <v>651339.86846747901</v>
       </c>
       <c r="AB28" s="12">
-        <f t="shared" si="58"/>
-        <v>748954.72255875624</v>
+        <f t="shared" si="47"/>
+        <v>800201.03622098267</v>
       </c>
       <c r="AC28" s="12">
-        <f t="shared" si="58"/>
-        <v>887221.90194692218</v>
+        <f t="shared" si="47"/>
+        <v>959744.52936504153</v>
       </c>
       <c r="AD28" s="12">
-        <f t="shared" si="58"/>
-        <v>1032301.7850738806</v>
+        <f t="shared" si="47"/>
+        <v>1130530.7826569164</v>
       </c>
       <c r="AE28" s="12">
-        <f t="shared" si="58"/>
-        <v>1184418.9457640457</v>
+        <f t="shared" si="47"/>
+        <v>1313146.3712637443</v>
       </c>
       <c r="AF28" s="12">
-        <f t="shared" si="58"/>
-        <v>1343804.1459003347</v>
+        <f t="shared" si="47"/>
+        <v>1493935.803984504</v>
       </c>
       <c r="AG28" s="12">
-        <f t="shared" si="58"/>
-        <v>1510694.4899786946</v>
+        <f t="shared" si="47"/>
+        <v>1672917.3423780561</v>
       </c>
       <c r="AH28" s="12">
-        <f t="shared" si="58"/>
-        <v>1685333.5832967216</v>
+        <f t="shared" si="47"/>
+        <v>1850109.0653876727</v>
       </c>
       <c r="AI28" s="12">
-        <f t="shared" si="58"/>
-        <v>1867971.6938584805</v>
+        <f t="shared" si="47"/>
+        <v>2025528.8711671932</v>
       </c>
       <c r="AJ28" s="12">
-        <f t="shared" si="58"/>
-        <v>2058865.9180794368</v>
+        <f t="shared" si="47"/>
+        <v>2199194.4788889182</v>
       </c>
       <c r="AK28" s="12">
-        <f t="shared" si="58"/>
-        <v>2258280.350377257</v>
+        <f t="shared" si="47"/>
+        <v>2371123.4305334263</v>
       </c>
       <c r="AL28" s="12">
-        <f t="shared" si="58"/>
-        <v>2466486.2567361165</v>
+        <f t="shared" si="47"/>
+        <v>2541333.0926614893</v>
       </c>
       <c r="AM28" s="12">
-        <f t="shared" si="58"/>
-        <v>2683762.2523340737</v>
+        <f t="shared" si="47"/>
+        <v>2709840.6581682716</v>
       </c>
       <c r="AN28" s="12">
-        <f t="shared" si="58"/>
-        <v>2896692.7280200715</v>
+        <f t="shared" si="47"/>
+        <v>2876663.1480199862</v>
       </c>
       <c r="AO28" s="12">
-        <f t="shared" si="58"/>
-        <v>3105364.5941923494</v>
+        <f t="shared" si="47"/>
+        <v>3041817.4129731837</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">

--- a/Stocks/AAPL.xlsx
+++ b/Stocks/AAPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://academiafaedupt-my.sharepoint.com/personal/sbclemente_academiafa_edu_pt/Documents/Gigs/WorkingFolder/Finance/Stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{9F7BAD96-7547-4D6D-BE3B-73568BA0B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2013B976-18E2-479A-958D-A3F45D38507C}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{9F7BAD96-7547-4D6D-BE3B-73568BA0B896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F62E18E-DD84-4A08-B908-70A4DCD48347}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{62312A71-324F-4839-9299-0A548D897115}"/>
+    <workbookView xWindow="5265" yWindow="3015" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{62312A71-324F-4839-9299-0A548D897115}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -863,10 +863,10 @@
   <dimension ref="A2:AX50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="L7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1166,7 +1166,7 @@
         <v>70</v>
       </c>
       <c r="O5" s="13">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -1183,71 +1183,71 @@
       </c>
       <c r="W5" s="4">
         <f>+V5*(1-$O$6)</f>
-        <v>390950.7</v>
+        <v>379452.15</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" ref="X5:AM5" si="8">+W5*(1-$O$6)</f>
-        <v>398769.71400000004</v>
+        <v>375657.62849999999</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="8"/>
-        <v>406745.10828000004</v>
+        <v>371901.05221499997</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="8"/>
-        <v>414880.01044560003</v>
+        <v>368182.04169284995</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="8"/>
-        <v>423177.61065451201</v>
+        <v>364500.22127592145</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="8"/>
-        <v>431641.16286760225</v>
+        <v>360855.21906316222</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="8"/>
-        <v>440273.9861249543</v>
+        <v>357246.66687253059</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="8"/>
-        <v>449079.46584745339</v>
+        <v>353674.20020380529</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="8"/>
-        <v>458061.05516440247</v>
+        <v>350137.45820176724</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="8"/>
-        <v>467222.27626769053</v>
+        <v>346636.08361974958</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="8"/>
-        <v>476566.72179304436</v>
+        <v>343169.72278355208</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="8"/>
-        <v>486098.05622890528</v>
+        <v>339738.02555571654</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="8"/>
-        <v>495820.01735348342</v>
+        <v>336340.64530015935</v>
       </c>
       <c r="AJ5" s="4">
         <f t="shared" si="8"/>
-        <v>505736.41770055308</v>
+        <v>332977.23884715774</v>
       </c>
       <c r="AK5" s="4">
         <f t="shared" si="8"/>
-        <v>515851.14605456416</v>
+        <v>329647.46645868616</v>
       </c>
       <c r="AL5" s="4">
         <f t="shared" si="8"/>
-        <v>526168.16897565546</v>
+        <v>326350.99179409927</v>
       </c>
       <c r="AM5" s="4">
         <f t="shared" si="8"/>
-        <v>536691.5323551686</v>
+        <v>323087.48187615827</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
@@ -1293,7 +1293,7 @@
         <v>64</v>
       </c>
       <c r="O6" s="7">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="U6" s="1">
         <f>SUM(E6:H6)</f>
@@ -1350,7 +1350,7 @@
         <v>59</v>
       </c>
       <c r="O7" s="7">
-        <v>7.0000000000000007E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="U7" s="1">
         <f>SUM(E7:H7)</f>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="O8" s="8">
         <f>NPV(O7,U17:AX17)</f>
-        <v>1657709.3564111427</v>
+        <v>986327.36877563631</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1444,7 +1444,7 @@
         <v>216278.37</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" ref="X8:AM8" si="11">+W8*1.01</f>
+        <f t="shared" ref="X8:AE8" si="11">+W8*1.01</f>
         <v>218441.1537</v>
       </c>
       <c r="Y8" s="1">
@@ -1557,39 +1557,39 @@
       </c>
       <c r="W9" s="4">
         <f>+W5-W8</f>
-        <v>174672.33000000002</v>
+        <v>163173.78000000003</v>
       </c>
       <c r="X9" s="4">
         <f>+X5-X8</f>
-        <v>180328.56030000004</v>
+        <v>157216.4748</v>
       </c>
       <c r="Y9" s="4">
         <f>+Y5-Y8</f>
-        <v>186119.54304300004</v>
+        <v>151275.48697799997</v>
       </c>
       <c r="Z9" s="4">
-        <f t="shared" ref="Z9:AH9" si="14">+Z5-Z8</f>
-        <v>192048.18955623003</v>
+        <f t="shared" ref="Z9:AE9" si="14">+Z5-Z8</f>
+        <v>145350.22080347996</v>
       </c>
       <c r="AA9" s="4">
         <f t="shared" si="14"/>
-        <v>198117.47155624832</v>
+        <v>139440.08217765775</v>
       </c>
       <c r="AB9" s="4">
         <f t="shared" si="14"/>
-        <v>204330.42237835593</v>
+        <v>133544.4785739159</v>
       </c>
       <c r="AC9" s="4">
         <f t="shared" si="14"/>
-        <v>210690.1382308155</v>
+        <v>127662.81897839179</v>
       </c>
       <c r="AD9" s="4">
         <f t="shared" si="14"/>
-        <v>217199.77947437321</v>
+        <v>121794.5138307251</v>
       </c>
       <c r="AE9" s="4">
         <f t="shared" si="14"/>
-        <v>223862.57192759149</v>
+        <v>115938.97496495626</v>
       </c>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="O10" s="1">
         <f>+O8+O9</f>
-        <v>1709446.3564111427</v>
+        <v>1038064.3687756363</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1667,7 +1667,7 @@
         <v>30513.3</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" ref="X10:AM10" si="16">+W10*1.02</f>
+        <f t="shared" ref="X10:AE10" si="16">+W10*1.02</f>
         <v>31123.565999999999</v>
       </c>
       <c r="Y10" s="1">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="O11" s="9">
         <f>+O10/main!L5</f>
-        <v>112.43297507850282</v>
+        <v>68.275125959180471</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1768,7 +1768,7 @@
         <v>24932</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" ref="W11:AM11" si="17">+V11*1.02</f>
+        <f t="shared" ref="W11:AE11" si="17">+V11*1.02</f>
         <v>25430.639999999999</v>
       </c>
       <c r="X11" s="1">
@@ -1885,7 +1885,7 @@
         <v>55943.94</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" ref="X12:AH12" si="21">+X10+X11</f>
+        <f t="shared" ref="X12:AE12" si="21">+X10+X11</f>
         <v>57062.818799999994</v>
       </c>
       <c r="Y12" s="1">
@@ -1979,7 +1979,7 @@
       </c>
       <c r="O13" s="7">
         <f>+O11/O12-1</f>
-        <v>-0.4818756908824755</v>
+        <v>-0.68536808313741715</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -2000,39 +2000,39 @@
       </c>
       <c r="W13" s="4">
         <f t="shared" ref="W13" si="24">+W9-W12</f>
-        <v>118728.39000000001</v>
+        <v>107229.84000000003</v>
       </c>
       <c r="X13" s="4">
         <f t="shared" ref="X13" si="25">+X9-X12</f>
-        <v>123265.74150000005</v>
+        <v>100153.656</v>
       </c>
       <c r="Y13" s="4">
         <f>+Y9-Y12</f>
-        <v>127915.46786700004</v>
+        <v>93071.411801999973</v>
       </c>
       <c r="Z13" s="4">
-        <f t="shared" ref="Z13:AH13" si="26">+Z9-Z12</f>
-        <v>132680.03287671003</v>
+        <f t="shared" ref="Z13:AE13" si="26">+Z9-Z12</f>
+        <v>85982.06412395995</v>
       </c>
       <c r="AA13" s="4">
         <f t="shared" si="26"/>
-        <v>137561.95174313791</v>
+        <v>78884.562364547353</v>
       </c>
       <c r="AB13" s="4">
         <f t="shared" si="26"/>
-        <v>142563.79216898332</v>
+        <v>71777.848364543286</v>
       </c>
       <c r="AC13" s="4">
         <f t="shared" si="26"/>
-        <v>147688.17541725544</v>
+        <v>64660.856164831726</v>
       </c>
       <c r="AD13" s="4">
         <f t="shared" si="26"/>
-        <v>152937.77740454194</v>
+        <v>57532.511760893838</v>
       </c>
       <c r="AE13" s="4">
         <f t="shared" si="26"/>
-        <v>158315.32981636358</v>
+        <v>50391.732853728361</v>
       </c>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
@@ -2100,39 +2100,39 @@
       </c>
       <c r="W14" s="10">
         <f>+V28*$O$5</f>
-        <v>510.11</v>
+        <v>1530.33</v>
       </c>
       <c r="X14" s="10">
         <f>+W28*0.05</f>
-        <v>7618.1862500000007</v>
+        <v>7172.8572250000016</v>
       </c>
       <c r="Y14" s="10">
         <f t="shared" ref="Y14:AE14" si="28">+X28*0.05</f>
-        <v>13180.753179375002</v>
+        <v>11734.234037062502</v>
       </c>
       <c r="Z14" s="10">
         <f t="shared" si="28"/>
-        <v>19177.342573845941</v>
+        <v>16188.473985222658</v>
       </c>
       <c r="AA14" s="10">
         <f t="shared" si="28"/>
-        <v>25631.281030494571</v>
+        <v>20530.721854862921</v>
       </c>
       <c r="AB14" s="10">
         <f t="shared" si="28"/>
-        <v>32566.993423373951</v>
+        <v>24755.871434187859</v>
       </c>
       <c r="AC14" s="10">
         <f t="shared" si="28"/>
-        <v>40010.051811049139</v>
+        <v>28858.554525633932</v>
       </c>
       <c r="AD14" s="10">
         <f t="shared" si="28"/>
-        <v>47987.226468252076</v>
+        <v>32833.129479978721</v>
       </c>
       <c r="AE14" s="10">
         <f t="shared" si="28"/>
-        <v>56526.539132845821</v>
+        <v>36673.669232715809</v>
       </c>
       <c r="AF14" s="10"/>
       <c r="AG14" s="10"/>
@@ -2200,39 +2200,39 @@
       </c>
       <c r="W15" s="1">
         <f>+W13+W14</f>
-        <v>119238.50000000001</v>
+        <v>108760.17000000003</v>
       </c>
       <c r="X15" s="1">
         <f>+X13+X14</f>
-        <v>130883.92775000005</v>
+        <v>107326.513225</v>
       </c>
       <c r="Y15" s="1">
         <f>+Y13+Y14</f>
-        <v>141096.22104637505</v>
+        <v>104805.64583906248</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" ref="Z15:AH15" si="29">+Z13+Z14</f>
-        <v>151857.37545055596</v>
+        <f t="shared" ref="Z15:AE15" si="29">+Z13+Z14</f>
+        <v>102170.53810918261</v>
       </c>
       <c r="AA15" s="1">
         <f t="shared" si="29"/>
-        <v>163193.23277363248</v>
+        <v>99415.28421941027</v>
       </c>
       <c r="AB15" s="1">
         <f t="shared" si="29"/>
-        <v>175130.78559235728</v>
+        <v>96533.719798731152</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" si="29"/>
-        <v>187698.22722830457</v>
+        <v>93519.410690465651</v>
       </c>
       <c r="AD15" s="1">
         <f t="shared" si="29"/>
-        <v>200925.00387279401</v>
+        <v>90365.641240872559</v>
       </c>
       <c r="AE15" s="1">
         <f t="shared" si="29"/>
-        <v>214841.8689492094</v>
+        <v>87065.40208644417</v>
       </c>
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
@@ -2300,39 +2300,39 @@
       </c>
       <c r="W16" s="1">
         <f>+W15*0.15</f>
-        <v>17885.775000000001</v>
+        <v>16314.025500000003</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" ref="X16:AM16" si="30">+X15*0.15</f>
-        <v>19632.589162500008</v>
+        <f t="shared" ref="X16:AE16" si="30">+X15*0.15</f>
+        <v>16098.976983749999</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="30"/>
-        <v>21164.433156956256</v>
+        <v>15720.84687585937</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="30"/>
-        <v>22778.606317583395</v>
+        <v>15325.580716377392</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="30"/>
-        <v>24478.984916044872</v>
+        <v>14912.29263291154</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="30"/>
-        <v>26269.617838853592</v>
+        <v>14480.057969809672</v>
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="30"/>
-        <v>28154.734084245687</v>
+        <v>14027.911603569848</v>
       </c>
       <c r="AD16" s="1">
         <f t="shared" si="30"/>
-        <v>30138.750580919099</v>
+        <v>13554.846186130884</v>
       </c>
       <c r="AE16" s="1">
         <f t="shared" si="30"/>
-        <v>32226.280342381408</v>
+        <v>13059.810312966625</v>
       </c>
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
@@ -2400,7 +2400,7 @@
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4">
-        <f t="shared" ref="U17:AH17" si="32">+U15-U16</f>
+        <f t="shared" ref="U17:AE17" si="32">+U15-U16</f>
         <v>94760</v>
       </c>
       <c r="V17" s="4">
@@ -2409,95 +2409,95 @@
       </c>
       <c r="W17" s="4">
         <f t="shared" si="32"/>
-        <v>101352.72500000001</v>
+        <v>92446.144500000024</v>
       </c>
       <c r="X17" s="4">
         <f t="shared" si="32"/>
-        <v>111251.33858750004</v>
+        <v>91227.536241249996</v>
       </c>
       <c r="Y17" s="4">
         <f t="shared" si="32"/>
-        <v>119931.7878894188</v>
+        <v>89084.798963203109</v>
       </c>
       <c r="Z17" s="4">
         <f t="shared" si="32"/>
-        <v>129078.76913297256</v>
+        <v>86844.957392805227</v>
       </c>
       <c r="AA17" s="4">
         <f t="shared" si="32"/>
-        <v>138714.24785758762</v>
+        <v>84502.991586498727</v>
       </c>
       <c r="AB17" s="4">
         <f t="shared" si="32"/>
-        <v>148861.16775350369</v>
+        <v>82053.661828921482</v>
       </c>
       <c r="AC17" s="4">
         <f t="shared" si="32"/>
-        <v>159543.49314405888</v>
+        <v>79491.499086895798</v>
       </c>
       <c r="AD17" s="4">
         <f t="shared" si="32"/>
-        <v>170786.25329187492</v>
+        <v>76810.795054741669</v>
       </c>
       <c r="AE17" s="4">
         <f t="shared" si="32"/>
-        <v>182615.58860682798</v>
+        <v>74005.591773477543</v>
       </c>
       <c r="AF17" s="4">
         <f>+AE17*0.99</f>
-        <v>180789.43272075971</v>
+        <v>73265.535855742768</v>
       </c>
       <c r="AG17" s="4">
         <f t="shared" ref="AG17:AS17" si="33">+AF17*0.99</f>
-        <v>178981.53839355212</v>
+        <v>72532.880497185339</v>
       </c>
       <c r="AH17" s="4">
         <f t="shared" si="33"/>
-        <v>177191.7230096166</v>
+        <v>71807.551692213485</v>
       </c>
       <c r="AI17" s="4">
         <f t="shared" si="33"/>
-        <v>175419.80577952042</v>
+        <v>71089.476175291347</v>
       </c>
       <c r="AJ17" s="4">
         <f t="shared" si="33"/>
-        <v>173665.60772172522</v>
+        <v>70378.581413538428</v>
       </c>
       <c r="AK17" s="4">
         <f t="shared" si="33"/>
-        <v>171928.95164450796</v>
+        <v>69674.795599403049</v>
       </c>
       <c r="AL17" s="4">
         <f t="shared" si="33"/>
-        <v>170209.66212806289</v>
+        <v>68978.047643409023</v>
       </c>
       <c r="AM17" s="4">
         <f t="shared" si="33"/>
-        <v>168507.56550678227</v>
+        <v>68288.267166974925</v>
       </c>
       <c r="AN17" s="4">
         <f t="shared" si="33"/>
-        <v>166822.48985171443</v>
+        <v>67605.384495305174</v>
       </c>
       <c r="AO17" s="4">
         <f t="shared" si="33"/>
-        <v>165154.2649531973</v>
+        <v>66929.330650352116</v>
       </c>
       <c r="AP17" s="4">
         <f t="shared" si="33"/>
-        <v>163502.72230366533</v>
+        <v>66260.037343848599</v>
       </c>
       <c r="AQ17" s="4">
         <f t="shared" si="33"/>
-        <v>161867.69508062868</v>
+        <v>65597.436970410112</v>
       </c>
       <c r="AR17" s="4">
         <f t="shared" si="33"/>
-        <v>160249.01812982239</v>
+        <v>64941.462600706007</v>
       </c>
       <c r="AS17" s="4">
         <f t="shared" si="33"/>
-        <v>158646.52794852416</v>
+        <v>64292.047974698944</v>
       </c>
       <c r="AT17" s="4"/>
       <c r="AU17" s="4"/>
@@ -2559,7 +2559,7 @@
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="U18" s="5">
-        <f t="shared" ref="U18:AH18" si="35">+U17/U19</f>
+        <f t="shared" ref="U18:AE18" si="35">+U17/U19</f>
         <v>5.8269530830967726</v>
       </c>
       <c r="V18" s="5">
@@ -2568,39 +2568,39 @@
       </c>
       <c r="W18" s="5">
         <f t="shared" si="35"/>
-        <v>6.4226844128238456</v>
+        <v>5.8582777256932266</v>
       </c>
       <c r="X18" s="5">
         <f t="shared" si="35"/>
-        <v>7.0499558670151643</v>
+        <v>5.7810549744666337</v>
       </c>
       <c r="Y18" s="5">
         <f t="shared" si="35"/>
-        <v>7.6000327043941418</v>
+        <v>5.6452705116760349</v>
       </c>
       <c r="Z18" s="5">
         <f t="shared" si="35"/>
-        <v>8.1796734970552656</v>
+        <v>5.5033325860663451</v>
       </c>
       <c r="AA18" s="5">
         <f t="shared" si="35"/>
-        <v>8.7902701930462293</v>
+        <v>5.3549230856850656</v>
       </c>
       <c r="AB18" s="5">
         <f t="shared" si="35"/>
-        <v>9.4332767254672607</v>
+        <v>5.1997099717223483</v>
       </c>
       <c r="AC18" s="5">
         <f t="shared" si="35"/>
-        <v>10.110211704557672</v>
+        <v>5.037346673583829</v>
       </c>
       <c r="AD18" s="5">
         <f t="shared" si="35"/>
-        <v>10.822661225362319</v>
+        <v>4.8674714580658414</v>
       </c>
       <c r="AE18" s="5">
         <f t="shared" si="35"/>
-        <v>11.572281795913488</v>
+        <v>4.6897067715280354</v>
       </c>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5"/>
@@ -2666,7 +2666,7 @@
         <v>15780.4305</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" ref="X19:AH19" si="36">+W19</f>
+        <f t="shared" ref="X19:AE19" si="36">+W19</f>
         <v>15780.4305</v>
       </c>
       <c r="Y19" s="1">
@@ -2772,39 +2772,39 @@
       </c>
       <c r="W21" s="2">
         <f t="shared" ref="W21:AH21" si="38">+W9/W5</f>
-        <v>0.44678863600960433</v>
+        <v>0.43002465528262263</v>
       </c>
       <c r="X21" s="2">
         <f>+X9/X5</f>
-        <v>0.45221227683303961</v>
+        <v>0.41851000185398868</v>
       </c>
       <c r="Y21" s="2">
         <f>+Y9/Y5</f>
-        <v>0.45758274470722549</v>
+        <v>0.40676272916417022</v>
       </c>
       <c r="Z21" s="2">
         <f t="shared" si="38"/>
-        <v>0.46290056093558601</v>
+        <v>0.39477813783415344</v>
       </c>
       <c r="AA21" s="2">
         <f t="shared" si="38"/>
-        <v>0.46816624171072729</v>
+        <v>0.38255143354797472</v>
       </c>
       <c r="AB21" s="2">
         <f t="shared" si="38"/>
-        <v>0.47338029816454369</v>
+        <v>0.37007772513480253</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" si="38"/>
-        <v>0.47854323641783247</v>
+        <v>0.35735202261227322</v>
       </c>
       <c r="AD21" s="2">
         <f t="shared" si="38"/>
-        <v>0.48365555762942236</v>
+        <v>0.34436923519029894</v>
       </c>
       <c r="AE21" s="2">
         <f t="shared" si="38"/>
-        <v>0.48871775804482021</v>
+        <v>0.33112416923454746</v>
       </c>
       <c r="AF21" s="2">
         <f t="shared" si="38"/>
@@ -2885,39 +2885,39 @@
       </c>
       <c r="W22" s="2">
         <f t="shared" ref="W22:AH22" si="40">+W13/W5</f>
-        <v>0.30369146288777588</v>
+        <v>0.28259120418740552</v>
       </c>
       <c r="X22" s="2">
         <f>+X13/X5</f>
-        <v>0.3091151037112112</v>
+        <v>0.26660887042255288</v>
       </c>
       <c r="Y22" s="2">
         <f>+Y13/Y5</f>
-        <v>0.31448557158539708</v>
+        <v>0.25025853314390301</v>
       </c>
       <c r="Z22" s="2">
         <f t="shared" si="40"/>
-        <v>0.31980338781375761</v>
+        <v>0.23353139041933263</v>
       </c>
       <c r="AA22" s="2">
         <f t="shared" si="40"/>
-        <v>0.32506906858889889</v>
+        <v>0.21641842105997755</v>
       </c>
       <c r="AB22" s="2">
         <f t="shared" si="40"/>
-        <v>0.33028312504271529</v>
+        <v>0.19891037893504782</v>
       </c>
       <c r="AC22" s="2">
         <f t="shared" si="40"/>
-        <v>0.33544606329600407</v>
+        <v>0.18099778713373807</v>
       </c>
       <c r="AD22" s="2">
         <f t="shared" si="40"/>
-        <v>0.34055838450759396</v>
+        <v>0.16267093196999002</v>
       </c>
       <c r="AE22" s="2">
         <f t="shared" si="40"/>
-        <v>0.34562058492299175</v>
+        <v>0.14391985682574426</v>
       </c>
       <c r="AF22" s="2">
         <f t="shared" si="40"/>
@@ -2998,51 +2998,51 @@
       </c>
       <c r="W23" s="2">
         <f t="shared" ref="W23:AH23" si="42">+W17/W5</f>
-        <v>0.2592468180770619</v>
+        <v>0.24363057239232935</v>
       </c>
       <c r="X23" s="2">
         <f>+X17/X5</f>
-        <v>0.27898642921387962</v>
+        <v>0.24284755404947139</v>
       </c>
       <c r="Y23" s="2">
         <f>+Y17/Y5</f>
-        <v>0.29485735771125421</v>
+        <v>0.23953898068484689</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" si="42"/>
-        <v>0.31112313411855175</v>
+        <v>0.23587504972677148</v>
       </c>
       <c r="AA23" s="2">
         <f t="shared" si="42"/>
-        <v>0.32779202955242315</v>
+        <v>0.23183248364211875</v>
       </c>
       <c r="AB23" s="2">
         <f t="shared" si="42"/>
-        <v>0.34487250188222673</v>
+        <v>0.22738665673714209</v>
       </c>
       <c r="AC23" s="2">
         <f t="shared" si="42"/>
-        <v>0.36237319980740085</v>
+        <v>0.22251152063305102</v>
       </c>
       <c r="AD23" s="2">
         <f t="shared" si="42"/>
-        <v>0.38030296702519201</v>
+        <v>0.21717952570608581</v>
       </c>
       <c r="AE23" s="2">
         <f t="shared" si="42"/>
-        <v>0.39867084649072709</v>
+        <v>0.21136153827572401</v>
       </c>
       <c r="AF23" s="2">
         <f t="shared" si="42"/>
-        <v>0.38694523335864689</v>
+        <v>0.21136153827572401</v>
       </c>
       <c r="AG23" s="2">
         <f t="shared" si="42"/>
-        <v>0.37556449120103969</v>
+        <v>0.21136153827572401</v>
       </c>
       <c r="AH23" s="2">
         <f t="shared" si="42"/>
-        <v>0.36451847675395022</v>
+        <v>0.21136153827572401</v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
@@ -3218,51 +3218,51 @@
       </c>
       <c r="W26" s="6">
         <f t="shared" ref="W26:AH26" si="46">+W5/V5-1</f>
-        <v>2.0000000000000018E-2</v>
+        <v>-9.9999999999998979E-3</v>
       </c>
       <c r="X26" s="6">
         <f>+X5/W5-1</f>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.000000000000012E-2</v>
       </c>
       <c r="Y26" s="6">
         <f>+Y5/X5-1</f>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="Z26" s="6">
         <f>+Z5/Y5-1</f>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.000000000000012E-2</v>
       </c>
       <c r="AA26" s="6">
         <f t="shared" si="46"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="AB26" s="6">
         <f t="shared" si="46"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="AC26" s="6">
         <f t="shared" si="46"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="AD26" s="6">
         <f t="shared" si="46"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="AE26" s="6">
         <f t="shared" si="46"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="AF26" s="6">
         <f t="shared" si="46"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-9.9999999999998979E-3</v>
       </c>
       <c r="AG26" s="6">
         <f t="shared" si="46"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
       <c r="AH26" s="6">
         <f t="shared" si="46"/>
-        <v>2.0000000000000018E-2</v>
+        <v>-1.0000000000000009E-2</v>
       </c>
     </row>
     <row r="27" spans="1:50" ht="15" x14ac:dyDescent="0.25">
@@ -3332,79 +3332,79 @@
       </c>
       <c r="W28" s="12">
         <f>+V28+W17</f>
-        <v>152363.72500000001</v>
+        <v>143457.14450000002</v>
       </c>
       <c r="X28" s="12">
         <f t="shared" ref="X28:AO28" si="47">+W28+X17</f>
-        <v>263615.06358750002</v>
+        <v>234684.68074125002</v>
       </c>
       <c r="Y28" s="12">
         <f t="shared" si="47"/>
-        <v>383546.85147691879</v>
+        <v>323769.47970445314</v>
       </c>
       <c r="Z28" s="12">
         <f t="shared" si="47"/>
-        <v>512625.62060989137</v>
+        <v>410614.4370972584</v>
       </c>
       <c r="AA28" s="12">
         <f t="shared" si="47"/>
-        <v>651339.86846747901</v>
+        <v>495117.42868375714</v>
       </c>
       <c r="AB28" s="12">
         <f t="shared" si="47"/>
-        <v>800201.03622098267</v>
+        <v>577171.09051267861</v>
       </c>
       <c r="AC28" s="12">
         <f t="shared" si="47"/>
-        <v>959744.52936504153</v>
+        <v>656662.58959957445</v>
       </c>
       <c r="AD28" s="12">
         <f t="shared" si="47"/>
-        <v>1130530.7826569164</v>
+        <v>733473.38465431612</v>
       </c>
       <c r="AE28" s="12">
         <f t="shared" si="47"/>
-        <v>1313146.3712637443</v>
+        <v>807478.97642779362</v>
       </c>
       <c r="AF28" s="12">
         <f t="shared" si="47"/>
-        <v>1493935.803984504</v>
+        <v>880744.51228353637</v>
       </c>
       <c r="AG28" s="12">
         <f t="shared" si="47"/>
-        <v>1672917.3423780561</v>
+        <v>953277.39278072165</v>
       </c>
       <c r="AH28" s="12">
         <f t="shared" si="47"/>
-        <v>1850109.0653876727</v>
+        <v>1025084.9444729352</v>
       </c>
       <c r="AI28" s="12">
         <f t="shared" si="47"/>
-        <v>2025528.8711671932</v>
+        <v>1096174.4206482265</v>
       </c>
       <c r="AJ28" s="12">
         <f t="shared" si="47"/>
-        <v>2199194.4788889182</v>
+        <v>1166553.0020617649</v>
       </c>
       <c r="AK28" s="12">
         <f t="shared" si="47"/>
-        <v>2371123.4305334263</v>
+        <v>1236227.797661168</v>
       </c>
       <c r="AL28" s="12">
         <f t="shared" si="47"/>
-        <v>2541333.0926614893</v>
+        <v>1305205.8453045771</v>
       </c>
       <c r="AM28" s="12">
         <f t="shared" si="47"/>
-        <v>2709840.6581682716</v>
+        <v>1373494.1124715521</v>
       </c>
       <c r="AN28" s="12">
         <f t="shared" si="47"/>
-        <v>2876663.1480199862</v>
+        <v>1441099.4969668572</v>
       </c>
       <c r="AO28" s="12">
         <f t="shared" si="47"/>
-        <v>3041817.4129731837</v>
+        <v>1508028.8276172094</v>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">
